--- a/dataset/network.xlsx
+++ b/dataset/network.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="dd/mm/yy hh:mm" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
   </numFmts>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,84 +56,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -410,92 +354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:27:12</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.176</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:28:14</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25.624</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:29:16</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>27.669</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:30:19</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>27.669</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:31:21</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>24.645</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/12/2021 00:32:24</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25.144</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/network.xlsx
+++ b/dataset/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,161 +438,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/13/2021 01:49:48</t>
+          <t>05/13/2021 20:18:13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.969</v>
+        <v>30.642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/13/2021 01:50:51</t>
+          <t>05/13/2021 20:23:32</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.983</v>
+        <v>13.236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/13/2021 01:51:53</t>
+          <t>05/13/2021 20:23:51</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.366</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:52:55</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24.825</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:53:58</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>27.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:55:02</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>24.626</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:56:06</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>26.566</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:57:10</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25.48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:58:14</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25.424</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/13/2021 01:59:16</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25.584</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:00:19</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:01:23</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.618</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:02:28</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>193.304</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:03:33</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>174.638</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:04:39</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>105.194</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05/13/2021 02:05:43</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>169.873</v>
+        <v>8.685</v>
       </c>
     </row>
   </sheetData>
